--- a/src/main/webapp/WEB-INF/static/template/shopSku/shopSkuTemplate.xlsx
+++ b/src/main/webapp/WEB-INF/static/template/shopSku/shopSkuTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>店铺名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>店铺父ASIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,26 +421,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.08984375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="11.6328125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="11.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="3" max="4" width="10.125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="11.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -470,9 +466,6 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -489,7 +482,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -502,7 +495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
